--- a/data_test/test.xlsx
+++ b/data_test/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_PROGRAMOWANIE\_PROJECTS\PDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_PROGRAMOWANIE\_PROJECTS\PDF\data_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0942F16-B1AD-443E-ACA9-FA95D9FD5F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1317F0D9-6E62-4C6D-90F6-4546B06DAB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{10DBF30D-4F49-4D77-BBB6-7FFB2DA3B424}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Nazwisko, Imie</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>12-100 Kraków, ul. Orzeszkowej 4/3</t>
+  </si>
+  <si>
+    <t>SOKA BAU?</t>
   </si>
 </sst>
 </file>
@@ -522,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F60FC8-F95F-4374-8D7A-8F564EE6F90B}">
-  <dimension ref="A1:H238"/>
+  <dimension ref="A1:I238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +544,7 @@
     <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -560,12 +563,15 @@
       <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -587,7 +593,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -604,8 +610,11 @@
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -622,8 +631,11 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -641,7 +653,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -663,7 +675,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -679,49 +691,49 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="F9" s="6"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="F10" s="6"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="F11" s="6"/>
       <c r="G11" s="9"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="F12" s="6"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="F13" s="6"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="F14" s="6"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="F15" s="6"/>
       <c r="G15" s="9"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="F16" s="6"/>
       <c r="G16" s="9"/>

--- a/data_test/test.xlsx
+++ b/data_test/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_PROGRAMOWANIE\_PROJECTS\PDF\data_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1317F0D9-6E62-4C6D-90F6-4546B06DAB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F586F7D3-A2D4-4A22-B286-3433CC911A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{10DBF30D-4F49-4D77-BBB6-7FFB2DA3B424}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Nazwisko, Imie</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>SOKA BAU?</t>
+  </si>
+  <si>
+    <t>BIS?</t>
+  </si>
+  <si>
+    <t>TUNNEL?</t>
   </si>
 </sst>
 </file>
@@ -525,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F60FC8-F95F-4374-8D7A-8F564EE6F90B}">
-  <dimension ref="A1:I238"/>
+  <dimension ref="A1:K238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +550,7 @@
     <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -566,12 +572,18 @@
       <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -592,8 +604,11 @@
       <c r="H3" s="1">
         <v>44221</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -614,7 +629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -635,7 +650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -652,8 +667,11 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -674,8 +692,11 @@
       <c r="H7" s="1">
         <v>44221</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -691,49 +712,49 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="F9" s="6"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="F10" s="6"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="F11" s="6"/>
       <c r="G11" s="9"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="F12" s="6"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="F13" s="6"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="F14" s="6"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="F15" s="6"/>
       <c r="G15" s="9"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="F16" s="6"/>
       <c r="G16" s="9"/>

--- a/data_test/test.xlsx
+++ b/data_test/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_PROGRAMOWANIE\_PROJECTS\PDF\data_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F586F7D3-A2D4-4A22-B286-3433CC911A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA07829-A2A1-4E40-BE3C-B8362177DB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{10DBF30D-4F49-4D77-BBB6-7FFB2DA3B424}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Nazwisko, Imie</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Nr. Telefonu</t>
   </si>
   <si>
-    <t>Rozwiązanie umowy?</t>
-  </si>
-  <si>
     <t>Data rozwiązania</t>
   </si>
   <si>
@@ -90,6 +87,15 @@
   </si>
   <si>
     <t>TUNNEL?</t>
+  </si>
+  <si>
+    <t>Rozwiązanie WPBK-TUNNELLING?</t>
+  </si>
+  <si>
+    <t>Rozwiązanie PBKR-EXPORT?</t>
+  </si>
+  <si>
+    <t>Rozwiązanie BIS-EXPORT</t>
   </si>
 </sst>
 </file>
@@ -531,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F60FC8-F95F-4374-8D7A-8F564EE6F90B}">
-  <dimension ref="A1:K238"/>
+  <dimension ref="A1:M237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,13 +556,15 @@
     <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="9"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="9"/>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
@@ -567,23 +575,50 @@
         <v>4</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="1">
+        <v>33849</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>44221</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -593,22 +628,18 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1">
-        <v>44221</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -618,18 +649,18 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -639,18 +670,18 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -660,101 +691,86 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="J6" s="4" t="s">
+      <c r="G6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44221</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9"/>
       <c r="C7" s="1">
         <v>33849</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1">
-        <v>44221</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>33849</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="F9" s="6"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="F10" s="6"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="F11" s="6"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="F12" s="6"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="F13" s="6"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="F14" s="6"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="F15" s="6"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="F16" s="6"/>
       <c r="G16" s="9"/>
@@ -770,13 +786,11 @@
       <c r="C18" s="1"/>
       <c r="F18" s="6"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
@@ -794,24 +808,26 @@
       <c r="C23" s="1"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
+      <c r="C26" s="1"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
       <c r="C27" s="1"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -847,7 +863,6 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="C33" s="1"/>
-      <c r="E33" s="5"/>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -861,7 +876,6 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
       <c r="C36" s="1"/>
       <c r="F36" s="6"/>
     </row>
@@ -913,68 +927,70 @@
       <c r="C48" s="1"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
       <c r="C64" s="1"/>
+      <c r="E64" s="5"/>
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -990,9 +1006,7 @@
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
       <c r="C67" s="1"/>
-      <c r="E67" s="5"/>
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1040,13 +1054,13 @@
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
       <c r="C79" s="1"/>
+      <c r="E79" s="5"/>
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
       <c r="C80" s="1"/>
-      <c r="E80" s="5"/>
       <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -1074,7 +1088,9 @@
       <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
       <c r="C87" s="1"/>
+      <c r="E87" s="5"/>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,9 +1106,7 @@
       <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
       <c r="C90" s="1"/>
-      <c r="E90" s="5"/>
       <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -1128,7 +1142,9 @@
       <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
       <c r="C99" s="1"/>
+      <c r="E99" s="5"/>
       <c r="F99" s="6"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -1138,9 +1154,7 @@
       <c r="F100" s="6"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
       <c r="C101" s="1"/>
-      <c r="E101" s="5"/>
       <c r="F101" s="6"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -1192,13 +1206,13 @@
       <c r="F113" s="6"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
       <c r="C114" s="1"/>
+      <c r="E114" s="5"/>
       <c r="F114" s="6"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
       <c r="C115" s="1"/>
-      <c r="E115" s="5"/>
       <c r="F115" s="6"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,11 +1239,11 @@
       <c r="C121" s="1"/>
       <c r="F121" s="6"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C122" s="1"/>
       <c r="F122" s="6"/>
     </row>
-    <row r="123" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C123" s="1"/>
       <c r="F123" s="6"/>
     </row>
@@ -1242,7 +1256,9 @@
       <c r="F125" s="6"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
       <c r="C126" s="1"/>
+      <c r="E126" s="5"/>
       <c r="F126" s="6"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -1252,9 +1268,7 @@
       <c r="F127" s="6"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
       <c r="C128" s="1"/>
-      <c r="E128" s="5"/>
       <c r="F128" s="6"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -1314,7 +1328,9 @@
       <c r="F142" s="6"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
       <c r="C143" s="1"/>
+      <c r="E143" s="5"/>
       <c r="F143" s="6"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -1360,23 +1376,21 @@
       <c r="F150" s="6"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
       <c r="C151" s="1"/>
-      <c r="E151" s="5"/>
       <c r="F151" s="6"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
       <c r="C152" s="1"/>
+      <c r="E152" s="5"/>
       <c r="F152" s="6"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="C153" s="1"/>
-      <c r="E153" s="5"/>
       <c r="F153" s="6"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="5"/>
       <c r="C154" s="1"/>
       <c r="F154" s="6"/>
     </row>
@@ -1410,6 +1424,7 @@
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C162" s="1"/>
+      <c r="E162" s="5"/>
       <c r="F162" s="6"/>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.25">
@@ -1429,7 +1444,6 @@
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C166" s="1"/>
-      <c r="E166" s="5"/>
       <c r="F166" s="6"/>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.25">
@@ -1488,11 +1502,11 @@
       <c r="C180" s="1"/>
       <c r="F180" s="6"/>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C181" s="1"/>
       <c r="F181" s="6"/>
     </row>
-    <row r="182" spans="3:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C182" s="1"/>
       <c r="F182" s="6"/>
     </row>
@@ -1536,11 +1550,11 @@
       <c r="C192" s="1"/>
       <c r="F192" s="6"/>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C193" s="1"/>
       <c r="F193" s="6"/>
     </row>
-    <row r="194" spans="3:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C194" s="1"/>
       <c r="F194" s="6"/>
     </row>
@@ -1568,11 +1582,11 @@
       <c r="C200" s="1"/>
       <c r="F200" s="6"/>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C201" s="1"/>
       <c r="F201" s="6"/>
     </row>
-    <row r="202" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C202" s="1"/>
       <c r="F202" s="6"/>
     </row>
@@ -1669,11 +1683,11 @@
       <c r="F225" s="6"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="7"/>
       <c r="C226" s="1"/>
       <c r="F226" s="6"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="7"/>
       <c r="C227" s="1"/>
       <c r="F227" s="6"/>
     </row>
@@ -1717,13 +1731,9 @@
       <c r="C237" s="1"/>
       <c r="F237" s="6"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C238" s="1"/>
-      <c r="F238" s="6"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E223">
-    <sortCondition ref="A223"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E222">
+    <sortCondition ref="A222"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
